--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monitoring Dashboard\Monitoring Data Files\User Impact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE8FE5A-81FF-45CA-BCF2-2BF55ABC19C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA8C2CD-B328-4D7A-B4AA-CF4CD43EF4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -50,37 +50,19 @@
     <t>0 Errors</t>
   </si>
   <si>
-    <t>0 Errors %</t>
-  </si>
-  <si>
     <t>1 Errors</t>
   </si>
   <si>
-    <t>1 Errors %</t>
-  </si>
-  <si>
     <t>2 Errors</t>
   </si>
   <si>
-    <t>2 Errors %</t>
-  </si>
-  <si>
     <t>3-5 Errors</t>
   </si>
   <si>
-    <t>3-5 Errors %</t>
-  </si>
-  <si>
     <t>6-10 Errors</t>
   </si>
   <si>
-    <t>6-10 Errors %</t>
-  </si>
-  <si>
     <t>&gt;10 Errors</t>
-  </si>
-  <si>
-    <t>&gt;10 Errors %</t>
   </si>
 </sst>
 </file>
@@ -129,12 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -426,22 +407,14 @@
     <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="12" style="2"/>
+    <col min="10" max="16384" width="12" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,26 +442,8 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>45936</v>
       </c>
@@ -501,41 +456,23 @@
       <c r="D2" s="2">
         <v>3881</v>
       </c>
-      <c r="E2" s="4">
-        <v>0.90255813953488373</v>
+      <c r="E2" s="2">
+        <v>305</v>
       </c>
       <c r="F2" s="2">
-        <v>305</v>
-      </c>
-      <c r="G2" s="4">
-        <v>7.093023255813953E-2</v>
+        <v>68</v>
+      </c>
+      <c r="G2" s="2">
+        <v>34</v>
       </c>
       <c r="H2" s="2">
-        <v>68</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1.5813953488372091E-2</v>
-      </c>
-      <c r="J2" s="2">
-        <v>34</v>
-      </c>
-      <c r="K2" s="4">
-        <v>7.9069767441860457E-3</v>
-      </c>
-      <c r="L2" s="2">
         <v>10</v>
       </c>
-      <c r="M2" s="4">
-        <v>2.3255813953488372E-3</v>
-      </c>
-      <c r="N2" s="2">
+      <c r="I2" s="2">
         <v>2</v>
       </c>
-      <c r="O2" s="4">
-        <v>4.6511627906976747E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>45937</v>
       </c>
@@ -548,41 +485,23 @@
       <c r="D3" s="2">
         <v>4018</v>
       </c>
-      <c r="E3" s="4">
-        <v>0.91007927519818799</v>
+      <c r="E3" s="2">
+        <v>299</v>
       </c>
       <c r="F3" s="2">
-        <v>299</v>
-      </c>
-      <c r="G3" s="4">
-        <v>6.7723669309173271E-2</v>
+        <v>58</v>
+      </c>
+      <c r="G3" s="2">
+        <v>36</v>
       </c>
       <c r="H3" s="2">
-        <v>58</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1.3137032842582106E-2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>36</v>
-      </c>
-      <c r="K3" s="4">
-        <v>8.154020385050963E-3</v>
-      </c>
-      <c r="L3" s="2">
         <v>3</v>
       </c>
-      <c r="M3" s="4">
-        <v>6.7950169875424684E-4</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="O3" s="4">
-        <v>2.2650056625141563E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>45938</v>
       </c>
@@ -595,41 +514,23 @@
       <c r="D4" s="2">
         <v>4004</v>
       </c>
-      <c r="E4" s="4">
-        <v>0.91877007801743915</v>
+      <c r="E4" s="2">
+        <v>267</v>
       </c>
       <c r="F4" s="2">
-        <v>267</v>
-      </c>
-      <c r="G4" s="4">
-        <v>6.1266636071592474E-2</v>
+        <v>54</v>
+      </c>
+      <c r="G4" s="2">
+        <v>29</v>
       </c>
       <c r="H4" s="2">
-        <v>54</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1.2391005048187242E-2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>29</v>
-      </c>
-      <c r="K4" s="4">
-        <v>6.6544286369894451E-3</v>
-      </c>
-      <c r="L4" s="2">
         <v>3</v>
       </c>
-      <c r="M4" s="4">
-        <v>6.8838916934373562E-4</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="O4" s="4">
-        <v>2.2946305644791189E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45939</v>
       </c>
@@ -642,41 +543,23 @@
       <c r="D5" s="2">
         <v>3950</v>
       </c>
-      <c r="E5" s="4">
-        <v>0.92096059687572862</v>
+      <c r="E5" s="2">
+        <v>274</v>
       </c>
       <c r="F5" s="2">
-        <v>274</v>
-      </c>
-      <c r="G5" s="4">
-        <v>6.3884355327582187E-2</v>
+        <v>36</v>
+      </c>
+      <c r="G5" s="2">
+        <v>26</v>
       </c>
       <c r="H5" s="2">
-        <v>36</v>
-      </c>
-      <c r="I5" s="4">
-        <v>8.3935649335509441E-3</v>
-      </c>
-      <c r="J5" s="2">
-        <v>26</v>
-      </c>
-      <c r="K5" s="4">
-        <v>6.0620191186756822E-3</v>
-      </c>
-      <c r="L5" s="2">
         <v>2</v>
       </c>
-      <c r="M5" s="4">
-        <v>4.6630916297505244E-4</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="O5" s="4">
-        <v>2.3315458148752622E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45940</v>
       </c>
@@ -689,41 +572,23 @@
       <c r="D6" s="2">
         <v>3630</v>
       </c>
-      <c r="E6" s="4">
-        <v>0.91852226720647778</v>
+      <c r="E6" s="2">
+        <v>239</v>
       </c>
       <c r="F6" s="2">
-        <v>239</v>
-      </c>
-      <c r="G6" s="4">
-        <v>6.0475708502024293E-2</v>
+        <v>45</v>
+      </c>
+      <c r="G6" s="2">
+        <v>35</v>
       </c>
       <c r="H6" s="2">
-        <v>45</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1.138663967611336E-2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>35</v>
-      </c>
-      <c r="K6" s="4">
-        <v>8.856275303643725E-3</v>
-      </c>
-      <c r="L6" s="2">
         <v>3</v>
       </c>
-      <c r="M6" s="4">
-        <v>7.591093117408907E-4</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45943</v>
       </c>
@@ -736,41 +601,23 @@
       <c r="D7" s="2">
         <v>3726</v>
       </c>
-      <c r="E7" s="4">
-        <v>0.91368317802844534</v>
+      <c r="E7" s="2">
+        <v>275</v>
       </c>
       <c r="F7" s="2">
-        <v>275</v>
-      </c>
-      <c r="G7" s="4">
-        <v>6.7435017165277097E-2</v>
+        <v>42</v>
+      </c>
+      <c r="G7" s="2">
+        <v>29</v>
       </c>
       <c r="H7" s="2">
-        <v>42</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1.0299166257969592E-2</v>
-      </c>
-      <c r="J7" s="2">
-        <v>29</v>
-      </c>
-      <c r="K7" s="4">
-        <v>7.1113290828837663E-3</v>
-      </c>
-      <c r="L7" s="2">
         <v>5</v>
       </c>
-      <c r="M7" s="4">
-        <v>1.2260912211868563E-3</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="O7" s="4">
-        <v>2.4521824423737128E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45944</v>
       </c>
@@ -783,41 +630,23 @@
       <c r="D8" s="2">
         <v>3961</v>
       </c>
-      <c r="E8" s="4">
-        <v>0.90973817179604965</v>
+      <c r="E8" s="2">
+        <v>289</v>
       </c>
       <c r="F8" s="2">
-        <v>289</v>
-      </c>
-      <c r="G8" s="4">
-        <v>6.6375746440055117E-2</v>
+        <v>65</v>
+      </c>
+      <c r="G8" s="2">
+        <v>34</v>
       </c>
       <c r="H8" s="2">
-        <v>65</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1.4928801102434544E-2</v>
-      </c>
-      <c r="J8" s="2">
-        <v>34</v>
-      </c>
-      <c r="K8" s="4">
-        <v>7.8089113458888375E-3</v>
-      </c>
-      <c r="L8" s="2">
         <v>4</v>
       </c>
-      <c r="M8" s="4">
-        <v>9.1869545245751034E-4</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="O8" s="4">
-        <v>2.2967386311437759E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>45947</v>
       </c>
@@ -830,156 +659,86 @@
       <c r="D9" s="2">
         <v>3640</v>
       </c>
-      <c r="E9" s="4">
-        <v>0.92503176620076244</v>
+      <c r="E9" s="2">
+        <v>218</v>
       </c>
       <c r="F9" s="2">
-        <v>218</v>
-      </c>
-      <c r="G9" s="4">
-        <v>5.54002541296061E-2</v>
+        <v>49</v>
+      </c>
+      <c r="G9" s="2">
+        <v>26</v>
       </c>
       <c r="H9" s="2">
-        <v>49</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1.2452350698856416E-2</v>
-      </c>
-      <c r="J9" s="2">
-        <v>26</v>
-      </c>
-      <c r="K9" s="4">
-        <v>6.6073697585768741E-3</v>
-      </c>
-      <c r="L9" s="2">
         <v>2</v>
       </c>
-      <c r="M9" s="4">
-        <v>5.0825921219822107E-4</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>45950</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5596</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4187</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3852</v>
+      </c>
+      <c r="E10" s="2">
+        <v>261</v>
+      </c>
+      <c r="F10" s="2">
+        <v>46</v>
+      </c>
+      <c r="G10" s="2">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="O22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monitoring Dashboard\Monitoring Data Files\User Impact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA8C2CD-B328-4D7A-B4AA-CF4CD43EF4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A379A51-7165-4D3B-BDA9-206AC20DE065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,33 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3">
+        <v>45951</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5598</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4348</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3992</v>
+      </c>
+      <c r="E11" s="2">
+        <v>275</v>
+      </c>
+      <c r="F11" s="2">
+        <v>42</v>
+      </c>
+      <c r="G11" s="2">
+        <v>33</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A379A51-7165-4D3B-BDA9-206AC20DE065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844B0CBF-666E-4056-BF5A-95C605E477FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -734,7 +734,33 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3">
+        <v>45952</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5598</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4374</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4062</v>
+      </c>
+      <c r="E12" s="2">
+        <v>239</v>
+      </c>
+      <c r="F12" s="2">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844B0CBF-666E-4056-BF5A-95C605E477FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8476D957-CFFF-4F2C-BE87-F7EAD4A490E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,22 +399,22 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45936</v>
       </c>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45937</v>
       </c>
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45938</v>
       </c>
@@ -530,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45939</v>
       </c>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45940</v>
       </c>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45943</v>
       </c>
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45944</v>
       </c>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45947</v>
       </c>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45950</v>
       </c>
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45951</v>
       </c>
@@ -733,7 +733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45952</v>
       </c>
@@ -762,34 +762,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>45953</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5597</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4312</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3958</v>
+      </c>
+      <c r="E13" s="2">
+        <v>272</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44</v>
+      </c>
+      <c r="G13" s="2">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
     </row>
   </sheetData>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8476D957-CFFF-4F2C-BE87-F7EAD4A490E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797064E5-8EE7-4577-9CF6-67BA02878A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -792,10 +792,62 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5594</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3990</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3673</v>
+      </c>
+      <c r="E14" s="2">
+        <v>233</v>
+      </c>
+      <c r="F14" s="2">
+        <v>46</v>
+      </c>
+      <c r="G14" s="2">
+        <v>35</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5592</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4178</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3795</v>
+      </c>
+      <c r="E15" s="2">
+        <v>291</v>
+      </c>
+      <c r="F15" s="2">
+        <v>60</v>
+      </c>
+      <c r="G15" s="2">
+        <v>25</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797064E5-8EE7-4577-9CF6-67BA02878A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1742254C-7CA0-46B3-A0EF-1DB16FC40129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A17" sqref="A17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -850,24 +850,76 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5603</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4351</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4029</v>
+      </c>
+      <c r="E16" s="2">
+        <v>236</v>
+      </c>
+      <c r="F16" s="2">
+        <v>49</v>
+      </c>
+      <c r="G16" s="2">
+        <v>33</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5602</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4355</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4026</v>
+      </c>
+      <c r="E17" s="2">
+        <v>238</v>
+      </c>
+      <c r="F17" s="2">
+        <v>46</v>
+      </c>
+      <c r="G17" s="2">
+        <v>39</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
     </row>
   </sheetData>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1742254C-7CA0-46B3-A0EF-1DB16FC40129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B57357D-7284-4B96-B35F-F580D732084B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:I17"/>
+      <selection activeCell="A18" sqref="A18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -908,7 +908,33 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5602</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4316</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3961</v>
+      </c>
+      <c r="E18" s="2">
+        <v>265</v>
+      </c>
+      <c r="F18" s="2">
+        <v>55</v>
+      </c>
+      <c r="G18" s="2">
+        <v>32</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B57357D-7284-4B96-B35F-F580D732084B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BC5B3F-EAEA-4AC0-BD5C-36C06C59D955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,22 +399,22 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:I18"/>
+      <selection activeCell="A19" sqref="A19:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>45936</v>
       </c>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>45937</v>
       </c>
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>45938</v>
       </c>
@@ -530,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45939</v>
       </c>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45940</v>
       </c>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45943</v>
       </c>
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45944</v>
       </c>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>45947</v>
       </c>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>45950</v>
       </c>
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>45951</v>
       </c>
@@ -733,7 +733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>45952</v>
       </c>
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>45953</v>
       </c>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>45954</v>
       </c>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>45957</v>
       </c>
@@ -849,7 +849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>45958</v>
       </c>
@@ -878,7 +878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>45959</v>
       </c>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>45960</v>
       </c>
@@ -936,16 +936,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>45961</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5594</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3925</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3630</v>
+      </c>
+      <c r="E19" s="2">
+        <v>222</v>
+      </c>
+      <c r="F19" s="2">
+        <v>40</v>
+      </c>
+      <c r="G19" s="2">
+        <v>27</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
     </row>
   </sheetData>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BC5B3F-EAEA-4AC0-BD5C-36C06C59D955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F6AD32-177D-4B17-B6F8-4C403B2291A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:I19"/>
+      <selection activeCell="A20" sqref="A20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -966,7 +966,33 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3">
+        <v>45964</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5596</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4324</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3950</v>
+      </c>
+      <c r="E20" s="2">
+        <v>287</v>
+      </c>
+      <c r="F20" s="2">
+        <v>54</v>
+      </c>
+      <c r="G20" s="2">
+        <v>27</v>
+      </c>
+      <c r="H20" s="2">
+        <v>6</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F6AD32-177D-4B17-B6F8-4C403B2291A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E0AE5F-7BC4-4C91-B2F7-D7C9D6B83BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:I20"/>
+      <selection activeCell="A21" sqref="A21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -995,7 +995,33 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3">
+        <v>45965</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5596</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4326</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3970</v>
+      </c>
+      <c r="E21" s="2">
+        <v>266</v>
+      </c>
+      <c r="F21" s="2">
+        <v>52</v>
+      </c>
+      <c r="G21" s="2">
+        <v>30</v>
+      </c>
+      <c r="H21" s="2">
+        <v>7</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E0AE5F-7BC4-4C91-B2F7-D7C9D6B83BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC67F614-8B46-4BD1-8BDB-7ECEE65A2CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,22 +399,22 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I21"/>
+      <selection activeCell="A22" sqref="A22:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45936</v>
       </c>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45937</v>
       </c>
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45938</v>
       </c>
@@ -530,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45939</v>
       </c>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45940</v>
       </c>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45943</v>
       </c>
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45944</v>
       </c>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45947</v>
       </c>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45950</v>
       </c>
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45951</v>
       </c>
@@ -733,7 +733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45952</v>
       </c>
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>45953</v>
       </c>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>45954</v>
       </c>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45957</v>
       </c>
@@ -849,7 +849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>45958</v>
       </c>
@@ -878,7 +878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>45959</v>
       </c>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>45960</v>
       </c>
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>45961</v>
       </c>
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>45964</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>45965</v>
       </c>
@@ -1023,8 +1023,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>45966</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5600</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4370</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4046</v>
+      </c>
+      <c r="E22" s="2">
+        <v>258</v>
+      </c>
+      <c r="F22" s="2">
+        <v>44</v>
+      </c>
+      <c r="G22" s="2">
+        <v>17</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC67F614-8B46-4BD1-8BDB-7ECEE65A2CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929DEA18-AAC9-444A-9A51-57D42C97422B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,11 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:I22"/>
+      <selection activeCell="A23" sqref="A23:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1052,6 +1053,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>45967</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5597</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4327</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3993</v>
+      </c>
+      <c r="E23" s="2">
+        <v>258</v>
+      </c>
+      <c r="F23" s="2">
+        <v>46</v>
+      </c>
+      <c r="G23" s="2">
+        <v>26</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929DEA18-AAC9-444A-9A51-57D42C97422B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D6172B-70B5-40B7-9BA6-BA2B4DDB3D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:I23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1082,6 +1082,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>45968</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5590</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4056</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3768</v>
+      </c>
+      <c r="E24" s="2">
+        <v>207</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45</v>
+      </c>
+      <c r="G24" s="2">
+        <v>30</v>
+      </c>
+      <c r="H24" s="2">
+        <v>6</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D6172B-70B5-40B7-9BA6-BA2B4DDB3D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:I24"/>
+      <selection activeCell="A25" sqref="A25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1111,6 +1111,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>45971</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5588</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3748</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3428</v>
+      </c>
+      <c r="E25" s="2">
+        <v>233</v>
+      </c>
+      <c r="F25" s="2">
+        <v>58</v>
+      </c>
+      <c r="G25" s="2">
+        <v>25</v>
+      </c>
+      <c r="H25" s="2">
+        <v>4</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF1613AA-9FC8-4B55-9FE0-EED9AA4B0E32}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:I25"/>
+      <selection activeCell="A26" sqref="A26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1140,6 +1140,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>45973</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5608</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4297</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3941</v>
+      </c>
+      <c r="E26" s="2">
+        <v>254</v>
+      </c>
+      <c r="F26" s="2">
+        <v>60</v>
+      </c>
+      <c r="G26" s="2">
+        <v>34</v>
+      </c>
+      <c r="H26" s="2">
+        <v>8</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF1613AA-9FC8-4B55-9FE0-EED9AA4B0E32}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D6172B-70B5-40B7-9BA6-BA2B4DDB3D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:I26"/>
+      <selection activeCell="A24" sqref="A24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1111,64 +1111,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>45971</v>
-      </c>
-      <c r="B25" s="2">
-        <v>5588</v>
-      </c>
-      <c r="C25" s="2">
-        <v>3748</v>
-      </c>
-      <c r="D25" s="2">
-        <v>3428</v>
-      </c>
-      <c r="E25" s="2">
-        <v>233</v>
-      </c>
-      <c r="F25" s="2">
-        <v>58</v>
-      </c>
-      <c r="G25" s="2">
-        <v>25</v>
-      </c>
-      <c r="H25" s="2">
-        <v>4</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>45973</v>
-      </c>
-      <c r="B26" s="2">
-        <v>5608</v>
-      </c>
-      <c r="C26" s="2">
-        <v>4297</v>
-      </c>
-      <c r="D26" s="2">
-        <v>3941</v>
-      </c>
-      <c r="E26" s="2">
-        <v>254</v>
-      </c>
-      <c r="F26" s="2">
-        <v>60</v>
-      </c>
-      <c r="G26" s="2">
-        <v>34</v>
-      </c>
-      <c r="H26" s="2">
-        <v>8</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuradah\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D6172B-70B5-40B7-9BA6-BA2B4DDB3D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17E01DE5-283B-4C44-B5A6-5ACA062159F0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:I24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1111,6 +1111,93 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>45971</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5588</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3748</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3428</v>
+      </c>
+      <c r="E25" s="2">
+        <v>233</v>
+      </c>
+      <c r="F25" s="2">
+        <v>58</v>
+      </c>
+      <c r="G25" s="2">
+        <v>25</v>
+      </c>
+      <c r="H25" s="2">
+        <v>4</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>45973</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5608</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4297</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3941</v>
+      </c>
+      <c r="E26" s="2">
+        <v>254</v>
+      </c>
+      <c r="F26" s="2">
+        <v>60</v>
+      </c>
+      <c r="G26" s="2">
+        <v>34</v>
+      </c>
+      <c r="H26" s="2">
+        <v>8</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>45974</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5616</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4369</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>273</v>
+      </c>
+      <c r="F27" s="2">
+        <v>52</v>
+      </c>
+      <c r="G27" s="2">
+        <v>35</v>
+      </c>
+      <c r="H27" s="2">
+        <v>8</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17E01DE5-283B-4C44-B5A6-5ACA062159F0}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AD83B04-7886-47E9-B829-53FDC40843C1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,25 +397,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:I27"/>
+      <selection activeCell="A28" sqref="A28:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>45936</v>
       </c>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>45937</v>
       </c>
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>45938</v>
       </c>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45939</v>
       </c>
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45940</v>
       </c>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45943</v>
       </c>
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45944</v>
       </c>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>45947</v>
       </c>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>45950</v>
       </c>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>45951</v>
       </c>
@@ -734,7 +734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>45952</v>
       </c>
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>45953</v>
       </c>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>45954</v>
       </c>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>45957</v>
       </c>
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>45958</v>
       </c>
@@ -879,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>45959</v>
       </c>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>45960</v>
       </c>
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>45961</v>
       </c>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>45964</v>
       </c>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>45965</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>45966</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>45967</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>45968</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>45971</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>45973</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>45974</v>
       </c>
@@ -1195,6 +1195,35 @@
         <v>8</v>
       </c>
       <c r="I27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>45975</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5610</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4110</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3790</v>
+      </c>
+      <c r="E28" s="2">
+        <v>251</v>
+      </c>
+      <c r="F28" s="2">
+        <v>42</v>
+      </c>
+      <c r="G28" s="2">
+        <v>25</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AD83B04-7886-47E9-B829-53FDC40843C1}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4E69BCF-02E4-4664-8602-7248FB8E2E70}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:I28"/>
+      <selection activeCell="A29" sqref="A29:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1227,6 +1227,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>45978</v>
+      </c>
+      <c r="B29" s="2">
+        <v>5610</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4222</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3716</v>
+      </c>
+      <c r="E29" s="2">
+        <v>331</v>
+      </c>
+      <c r="F29" s="2">
+        <v>94</v>
+      </c>
+      <c r="G29" s="2">
+        <v>70</v>
+      </c>
+      <c r="H29" s="2">
+        <v>11</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4E69BCF-02E4-4664-8602-7248FB8E2E70}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D0F42FE-07D3-473B-B46E-1FE40D43B27A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,25 +397,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:I29"/>
+      <selection activeCell="A30" sqref="A30:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45936</v>
       </c>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45937</v>
       </c>
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45938</v>
       </c>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45939</v>
       </c>
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45940</v>
       </c>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45943</v>
       </c>
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45944</v>
       </c>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45947</v>
       </c>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45950</v>
       </c>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45951</v>
       </c>
@@ -734,7 +734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45952</v>
       </c>
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>45953</v>
       </c>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>45954</v>
       </c>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45957</v>
       </c>
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>45958</v>
       </c>
@@ -879,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>45959</v>
       </c>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>45960</v>
       </c>
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>45961</v>
       </c>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>45964</v>
       </c>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>45965</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>45966</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>45967</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45968</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45971</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>45973</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>45974</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>45975</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45978</v>
       </c>
@@ -1253,6 +1253,35 @@
         <v>11</v>
       </c>
       <c r="I29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>45979</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5610</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4382</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3898</v>
+      </c>
+      <c r="E30" s="2">
+        <v>315</v>
+      </c>
+      <c r="F30" s="2">
+        <v>97</v>
+      </c>
+      <c r="G30" s="2">
+        <v>66</v>
+      </c>
+      <c r="H30" s="2">
+        <v>6</v>
+      </c>
+      <c r="I30" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D0F42FE-07D3-473B-B46E-1FE40D43B27A}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6333D870-1AAA-435D-9D32-F0B2D677872C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,25 +397,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:I30"/>
+      <selection activeCell="A31" sqref="A31:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>45936</v>
       </c>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>45937</v>
       </c>
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>45938</v>
       </c>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45939</v>
       </c>
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45940</v>
       </c>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45943</v>
       </c>
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45944</v>
       </c>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>45947</v>
       </c>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>45950</v>
       </c>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>45951</v>
       </c>
@@ -734,7 +734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>45952</v>
       </c>
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>45953</v>
       </c>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>45954</v>
       </c>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>45957</v>
       </c>
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>45958</v>
       </c>
@@ -879,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>45959</v>
       </c>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>45960</v>
       </c>
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>45961</v>
       </c>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>45964</v>
       </c>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>45965</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>45966</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>45967</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>45968</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>45971</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>45973</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>45974</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>45975</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>45978</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>45979</v>
       </c>
@@ -1282,6 +1282,35 @@
         <v>6</v>
       </c>
       <c r="I30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>45980</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5612</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4390</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4065</v>
+      </c>
+      <c r="E31" s="2">
+        <v>236</v>
+      </c>
+      <c r="F31" s="2">
+        <v>54</v>
+      </c>
+      <c r="G31" s="2">
+        <v>26</v>
+      </c>
+      <c r="H31" s="2">
+        <v>9</v>
+      </c>
+      <c r="I31" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6333D870-1AAA-435D-9D32-F0B2D677872C}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BE5DE5C-A4D2-4069-8ED1-AFF0AB8A9DB7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,25 +397,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:I31"/>
+      <selection activeCell="A32" sqref="A32:I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45936</v>
       </c>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45937</v>
       </c>
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45938</v>
       </c>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45939</v>
       </c>
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45940</v>
       </c>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45943</v>
       </c>
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45944</v>
       </c>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45947</v>
       </c>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45950</v>
       </c>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45951</v>
       </c>
@@ -734,7 +734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45952</v>
       </c>
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>45953</v>
       </c>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>45954</v>
       </c>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45957</v>
       </c>
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>45958</v>
       </c>
@@ -879,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>45959</v>
       </c>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>45960</v>
       </c>
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>45961</v>
       </c>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>45964</v>
       </c>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>45965</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>45966</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>45967</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>45968</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>45971</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>45973</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>45974</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>45975</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45978</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>45979</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>45980</v>
       </c>
@@ -1312,6 +1312,35 @@
       </c>
       <c r="I31" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>45981</v>
+      </c>
+      <c r="B32" s="2">
+        <v>5609</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4344</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4035</v>
+      </c>
+      <c r="E32" s="2">
+        <v>228</v>
+      </c>
+      <c r="F32" s="2">
+        <v>43</v>
+      </c>
+      <c r="G32" s="2">
+        <v>29</v>
+      </c>
+      <c r="H32" s="2">
+        <v>8</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BE5DE5C-A4D2-4069-8ED1-AFF0AB8A9DB7}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36ACCB11-294C-4A9C-9507-8E14547D49F4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:I32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1343,6 +1343,180 @@
         <v>1</v>
       </c>
     </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>45982</v>
+      </c>
+      <c r="B33" s="2">
+        <v>5627</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4092</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3816</v>
+      </c>
+      <c r="E33" s="2">
+        <v>197</v>
+      </c>
+      <c r="F33" s="2">
+        <v>46</v>
+      </c>
+      <c r="G33" s="2">
+        <v>27</v>
+      </c>
+      <c r="H33" s="2">
+        <v>6</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>45983</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5627</v>
+      </c>
+      <c r="C34" s="2">
+        <v>56</v>
+      </c>
+      <c r="D34" s="2">
+        <v>56</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>45984</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5627</v>
+      </c>
+      <c r="C35" s="2">
+        <v>42</v>
+      </c>
+      <c r="D35" s="2">
+        <v>42</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>45985</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5626</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4225</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3909</v>
+      </c>
+      <c r="E36" s="2">
+        <v>227</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45</v>
+      </c>
+      <c r="G36" s="2">
+        <v>39</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>45986</v>
+      </c>
+      <c r="B37" s="2">
+        <v>5623</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4194</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3868</v>
+      </c>
+      <c r="E37" s="2">
+        <v>245</v>
+      </c>
+      <c r="F37" s="2">
+        <v>52</v>
+      </c>
+      <c r="G37" s="2">
+        <v>24</v>
+      </c>
+      <c r="H37" s="2">
+        <v>5</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>45987</v>
+      </c>
+      <c r="B38" s="2">
+        <v>5620</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3695</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3413</v>
+      </c>
+      <c r="E38" s="2">
+        <v>215</v>
+      </c>
+      <c r="F38" s="2">
+        <v>33</v>
+      </c>
+      <c r="G38" s="2">
+        <v>30</v>
+      </c>
+      <c r="H38" s="2">
+        <v>3</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36ACCB11-294C-4A9C-9507-8E14547D49F4}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9258CF6-6C33-48D0-AF02-ECD8FAACF0C9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:I38"/>
+      <selection activeCell="A39" sqref="A39:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1517,6 +1517,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>45992</v>
+      </c>
+      <c r="B39" s="2">
+        <v>5612</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4205</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3873</v>
+      </c>
+      <c r="E39" s="2">
+        <v>245</v>
+      </c>
+      <c r="F39" s="2">
+        <v>51</v>
+      </c>
+      <c r="G39" s="2">
+        <v>36</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9258CF6-6C33-48D0-AF02-ECD8FAACF0C9}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B49FBB6F-4A43-45E3-A21D-15A062B7AA61}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:I39"/>
+      <selection activeCell="A41" sqref="A41:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1546,6 +1546,64 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>45993</v>
+      </c>
+      <c r="B40" s="2">
+        <v>5620</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4351</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4064</v>
+      </c>
+      <c r="E40" s="2">
+        <v>206</v>
+      </c>
+      <c r="F40" s="2">
+        <v>43</v>
+      </c>
+      <c r="G40" s="2">
+        <v>35</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>45994</v>
+      </c>
+      <c r="B41" s="2">
+        <v>5617</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4388</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4026</v>
+      </c>
+      <c r="E41" s="2">
+        <v>275</v>
+      </c>
+      <c r="F41" s="2">
+        <v>45</v>
+      </c>
+      <c r="G41" s="2">
+        <v>37</v>
+      </c>
+      <c r="H41" s="2">
+        <v>5</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B49FBB6F-4A43-45E3-A21D-15A062B7AA61}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF2777FA-5401-4EA8-B036-3998BE8C2CDD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:I41"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1604,6 +1604,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>45995</v>
+      </c>
+      <c r="B42" s="2">
+        <v>5617</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4362</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4020</v>
+      </c>
+      <c r="E42" s="2">
+        <v>236</v>
+      </c>
+      <c r="F42" s="2">
+        <v>68</v>
+      </c>
+      <c r="G42" s="2">
+        <v>34</v>
+      </c>
+      <c r="H42" s="2">
+        <v>4</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF2777FA-5401-4EA8-B036-3998BE8C2CDD}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08745F43-24FF-4B5E-A3E4-E70B635CA4B9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="A44" sqref="A44:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1633,6 +1633,64 @@
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>45999</v>
+      </c>
+      <c r="B43" s="2">
+        <v>5605</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4261</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3952</v>
+      </c>
+      <c r="E43" s="2">
+        <v>241</v>
+      </c>
+      <c r="F43" s="2">
+        <v>46</v>
+      </c>
+      <c r="G43" s="2">
+        <v>19</v>
+      </c>
+      <c r="H43" s="2">
+        <v>3</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>45996</v>
+      </c>
+      <c r="B44" s="2">
+        <v>5613</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4104</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3761</v>
+      </c>
+      <c r="E44" s="2">
+        <v>245</v>
+      </c>
+      <c r="F44" s="2">
+        <v>60</v>
+      </c>
+      <c r="G44" s="2">
+        <v>35</v>
+      </c>
+      <c r="H44" s="2">
+        <v>3</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08745F43-24FF-4B5E-A3E4-E70B635CA4B9}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96D91A80-22AE-4AD7-ADFD-A08F5C04BEDA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:I44"/>
+      <selection activeCell="A45" sqref="A45:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1691,6 +1691,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>46000</v>
+      </c>
+      <c r="B45" s="2">
+        <v>5620</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4321</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3988</v>
+      </c>
+      <c r="E45" s="2">
+        <v>239</v>
+      </c>
+      <c r="F45" s="2">
+        <v>60</v>
+      </c>
+      <c r="G45" s="2">
+        <v>30</v>
+      </c>
+      <c r="H45" s="2">
+        <v>3</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96D91A80-22AE-4AD7-ADFD-A08F5C04BEDA}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33168171-97F2-4944-9482-3F4AA522E977}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:I45"/>
+      <selection activeCell="A46" sqref="A46:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1720,6 +1720,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>46001</v>
+      </c>
+      <c r="B46" s="2">
+        <v>5618</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4243</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3902</v>
+      </c>
+      <c r="E46" s="2">
+        <v>251</v>
+      </c>
+      <c r="F46" s="2">
+        <v>51</v>
+      </c>
+      <c r="G46" s="2">
+        <v>35</v>
+      </c>
+      <c r="H46" s="2">
+        <v>3</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33168171-97F2-4944-9482-3F4AA522E977}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{940815A8-6E89-4F1D-9AE1-8DB200F0667A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:I46"/>
+      <selection activeCell="A47" sqref="A47:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1749,6 +1749,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46002</v>
+      </c>
+      <c r="B47" s="2">
+        <v>5617</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4261</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3952</v>
+      </c>
+      <c r="E47" s="2">
+        <v>230</v>
+      </c>
+      <c r="F47" s="2">
+        <v>48</v>
+      </c>
+      <c r="G47" s="2">
+        <v>26</v>
+      </c>
+      <c r="H47" s="2">
+        <v>5</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{940815A8-6E89-4F1D-9AE1-8DB200F0667A}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9142EAC-536A-430C-9A14-62167D7D9335}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:I47"/>
+      <selection activeCell="A48" sqref="A48:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1778,6 +1778,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>46003</v>
+      </c>
+      <c r="B48" s="2">
+        <v>5610</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4036</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3741</v>
+      </c>
+      <c r="E48" s="2">
+        <v>219</v>
+      </c>
+      <c r="F48" s="2">
+        <v>47</v>
+      </c>
+      <c r="G48" s="2">
+        <v>28</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9142EAC-536A-430C-9A14-62167D7D9335}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D792B75-E416-425F-A827-0D996EAAD5CC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:I48"/>
+      <selection activeCell="A49" sqref="A49:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1807,6 +1807,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>46006</v>
+      </c>
+      <c r="B49" s="2">
+        <v>5609</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4236</v>
+      </c>
+      <c r="D49" s="2">
+        <v>3909</v>
+      </c>
+      <c r="E49" s="2">
+        <v>205</v>
+      </c>
+      <c r="F49" s="2">
+        <v>54</v>
+      </c>
+      <c r="G49" s="2">
+        <v>57</v>
+      </c>
+      <c r="H49" s="2">
+        <v>9</v>
+      </c>
+      <c r="I49" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D792B75-E416-425F-A827-0D996EAAD5CC}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03CDC15C-E408-4446-9706-1D17171F409B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:I49"/>
+      <selection activeCell="A50" sqref="A50:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1836,6 +1836,35 @@
         <v>2</v>
       </c>
     </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>46007</v>
+      </c>
+      <c r="B50" s="2">
+        <v>5610</v>
+      </c>
+      <c r="C50" s="2">
+        <v>4328</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4016</v>
+      </c>
+      <c r="E50" s="2">
+        <v>226</v>
+      </c>
+      <c r="F50" s="2">
+        <v>46</v>
+      </c>
+      <c r="G50" s="2">
+        <v>35</v>
+      </c>
+      <c r="H50" s="2">
+        <v>5</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03CDC15C-E408-4446-9706-1D17171F409B}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABE01EFD-4FB8-4CB0-855F-5C12A8F127D4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:I50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1865,6 +1865,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>46008</v>
+      </c>
+      <c r="B51" s="2">
+        <v>5609</v>
+      </c>
+      <c r="C51" s="2">
+        <v>4292</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3947</v>
+      </c>
+      <c r="E51" s="2">
+        <v>239</v>
+      </c>
+      <c r="F51" s="2">
+        <v>61</v>
+      </c>
+      <c r="G51" s="2">
+        <v>38</v>
+      </c>
+      <c r="H51" s="2">
+        <v>7</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABE01EFD-4FB8-4CB0-855F-5C12A8F127D4}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCCD7B36-78F3-4C56-8A49-41DE4CDB0848}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:I51"/>
+      <selection activeCell="A52" sqref="A52:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1894,6 +1894,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>46009</v>
+      </c>
+      <c r="B52" s="2">
+        <v>5606</v>
+      </c>
+      <c r="C52" s="2">
+        <v>4253</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3882</v>
+      </c>
+      <c r="E52" s="2">
+        <v>250</v>
+      </c>
+      <c r="F52" s="2">
+        <v>62</v>
+      </c>
+      <c r="G52" s="2">
+        <v>49</v>
+      </c>
+      <c r="H52" s="2">
+        <v>10</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCCD7B36-78F3-4C56-8A49-41DE4CDB0848}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6581DC7D-1043-45C0-91EE-A510AB82DBE3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:I52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1923,6 +1923,93 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>46010</v>
+      </c>
+      <c r="B53" s="2">
+        <v>5600</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3952</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3629</v>
+      </c>
+      <c r="E53" s="2">
+        <v>209</v>
+      </c>
+      <c r="F53" s="2">
+        <v>49</v>
+      </c>
+      <c r="G53" s="2">
+        <v>59</v>
+      </c>
+      <c r="H53" s="2">
+        <v>5</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>46013</v>
+      </c>
+      <c r="B54" s="2">
+        <v>5590</v>
+      </c>
+      <c r="C54" s="2">
+        <v>3758</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3459</v>
+      </c>
+      <c r="E54" s="2">
+        <v>214</v>
+      </c>
+      <c r="F54" s="2">
+        <v>50</v>
+      </c>
+      <c r="G54" s="2">
+        <v>31</v>
+      </c>
+      <c r="H54" s="2">
+        <v>3</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>46014</v>
+      </c>
+      <c r="B55" s="2">
+        <v>5591</v>
+      </c>
+      <c r="C55" s="2">
+        <v>3624</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3325</v>
+      </c>
+      <c r="E55" s="2">
+        <v>201</v>
+      </c>
+      <c r="F55" s="2">
+        <v>48</v>
+      </c>
+      <c r="G55" s="2">
+        <v>46</v>
+      </c>
+      <c r="H55" s="2">
+        <v>4</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6581DC7D-1043-45C0-91EE-A510AB82DBE3}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E2E182C-3ABB-447E-A7C6-0E6CF5F8347D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:I55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2010,6 +2010,383 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>46015</v>
+      </c>
+      <c r="B56" s="2">
+        <v>5615</v>
+      </c>
+      <c r="C56" s="2">
+        <v>34</v>
+      </c>
+      <c r="D56" s="2">
+        <v>34</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>46016</v>
+      </c>
+      <c r="B57" s="2">
+        <v>5615</v>
+      </c>
+      <c r="C57" s="2">
+        <v>16</v>
+      </c>
+      <c r="D57" s="2">
+        <v>16</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>46017</v>
+      </c>
+      <c r="B58" s="2">
+        <v>5615</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3085</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2829</v>
+      </c>
+      <c r="E58" s="2">
+        <v>176</v>
+      </c>
+      <c r="F58" s="2">
+        <v>45</v>
+      </c>
+      <c r="G58" s="2">
+        <v>31</v>
+      </c>
+      <c r="H58" s="2">
+        <v>3</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>46018</v>
+      </c>
+      <c r="B59" s="2">
+        <v>5615</v>
+      </c>
+      <c r="C59" s="2">
+        <v>25</v>
+      </c>
+      <c r="D59" s="2">
+        <v>25</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>46019</v>
+      </c>
+      <c r="B60" s="2">
+        <v>5615</v>
+      </c>
+      <c r="C60" s="2">
+        <v>29</v>
+      </c>
+      <c r="D60" s="2">
+        <v>28</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>46020</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5615</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3495</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3223</v>
+      </c>
+      <c r="E61" s="2">
+        <v>203</v>
+      </c>
+      <c r="F61" s="2">
+        <v>39</v>
+      </c>
+      <c r="G61" s="2">
+        <v>25</v>
+      </c>
+      <c r="H61" s="2">
+        <v>4</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>46021</v>
+      </c>
+      <c r="B62" s="2">
+        <v>5615</v>
+      </c>
+      <c r="C62" s="2">
+        <v>3526</v>
+      </c>
+      <c r="D62" s="2">
+        <v>3265</v>
+      </c>
+      <c r="E62" s="2">
+        <v>197</v>
+      </c>
+      <c r="F62" s="2">
+        <v>40</v>
+      </c>
+      <c r="G62" s="2">
+        <v>20</v>
+      </c>
+      <c r="H62" s="2">
+        <v>4</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>46022</v>
+      </c>
+      <c r="B63" s="2">
+        <v>5615</v>
+      </c>
+      <c r="C63" s="2">
+        <v>50</v>
+      </c>
+      <c r="D63" s="2">
+        <v>50</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>46023</v>
+      </c>
+      <c r="B64" s="2">
+        <v>5615</v>
+      </c>
+      <c r="C64" s="2">
+        <v>39</v>
+      </c>
+      <c r="D64" s="2">
+        <v>38</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>46024</v>
+      </c>
+      <c r="B65" s="2">
+        <v>5615</v>
+      </c>
+      <c r="C65" s="2">
+        <v>3159</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2895</v>
+      </c>
+      <c r="E65" s="2">
+        <v>191</v>
+      </c>
+      <c r="F65" s="2">
+        <v>38</v>
+      </c>
+      <c r="G65" s="2">
+        <v>32</v>
+      </c>
+      <c r="H65" s="2">
+        <v>2</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>46025</v>
+      </c>
+      <c r="B66" s="2">
+        <v>5615</v>
+      </c>
+      <c r="C66" s="2">
+        <v>49</v>
+      </c>
+      <c r="D66" s="2">
+        <v>49</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>46026</v>
+      </c>
+      <c r="B67" s="2">
+        <v>5615</v>
+      </c>
+      <c r="C67" s="2">
+        <v>28</v>
+      </c>
+      <c r="D67" s="2">
+        <v>28</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>46027</v>
+      </c>
+      <c r="B68" s="2">
+        <v>5615</v>
+      </c>
+      <c r="C68" s="2">
+        <v>4161</v>
+      </c>
+      <c r="D68" s="2">
+        <v>3862</v>
+      </c>
+      <c r="E68" s="2">
+        <v>216</v>
+      </c>
+      <c r="F68" s="2">
+        <v>48</v>
+      </c>
+      <c r="G68" s="2">
+        <v>31</v>
+      </c>
+      <c r="H68" s="2">
+        <v>4</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E2E182C-3ABB-447E-A7C6-0E6CF5F8347D}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{349D9D6F-6563-47FF-8DED-57C3AF8AC428}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+      <selection activeCell="A63" sqref="A63:I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2041,77 +2041,77 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>46016</v>
+        <v>46017</v>
       </c>
       <c r="B57" s="2">
-        <v>5615</v>
+        <v>5611</v>
       </c>
       <c r="C57" s="2">
-        <v>16</v>
+        <v>3085</v>
       </c>
       <c r="D57" s="2">
-        <v>16</v>
+        <v>2829</v>
       </c>
       <c r="E57" s="2">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="F57" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G57" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H57" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I57" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>46017</v>
+        <v>46018</v>
       </c>
       <c r="B58" s="2">
-        <v>5615</v>
+        <v>5611</v>
       </c>
       <c r="C58" s="2">
-        <v>3085</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2">
-        <v>2829</v>
+        <v>25</v>
       </c>
       <c r="E58" s="2">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="F58" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G58" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>46018</v>
+        <v>46019</v>
       </c>
       <c r="B59" s="2">
-        <v>5615</v>
+        <v>5611</v>
       </c>
       <c r="C59" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="2">
         <v>0</v>
@@ -2128,264 +2128,134 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>46019</v>
+        <v>46020</v>
       </c>
       <c r="B60" s="2">
-        <v>5615</v>
+        <v>5609</v>
       </c>
       <c r="C60" s="2">
-        <v>29</v>
+        <v>3495</v>
       </c>
       <c r="D60" s="2">
-        <v>28</v>
+        <v>3223</v>
       </c>
       <c r="E60" s="2">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="F60" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G60" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H60" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>46020</v>
+        <v>46021</v>
       </c>
       <c r="B61" s="2">
-        <v>5615</v>
+        <v>5606</v>
       </c>
       <c r="C61" s="2">
-        <v>3495</v>
+        <v>3525</v>
       </c>
       <c r="D61" s="2">
-        <v>3223</v>
+        <v>3264</v>
       </c>
       <c r="E61" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F61" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G61" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H61" s="2">
         <v>4</v>
       </c>
       <c r="I61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>46021</v>
+        <v>46024</v>
       </c>
       <c r="B62" s="2">
-        <v>5615</v>
+        <v>5596</v>
       </c>
       <c r="C62" s="2">
-        <v>3526</v>
+        <v>3159</v>
       </c>
       <c r="D62" s="2">
-        <v>3265</v>
+        <v>2895</v>
       </c>
       <c r="E62" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F62" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H62" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>46022</v>
+        <v>46027</v>
       </c>
       <c r="B63" s="2">
-        <v>5615</v>
+        <v>5587</v>
       </c>
       <c r="C63" s="2">
-        <v>50</v>
+        <v>4160</v>
       </c>
       <c r="D63" s="2">
-        <v>50</v>
+        <v>3861</v>
       </c>
       <c r="E63" s="2">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="F63" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G63" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H63" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I63" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>46023</v>
-      </c>
-      <c r="B64" s="2">
-        <v>5615</v>
-      </c>
-      <c r="C64" s="2">
-        <v>39</v>
-      </c>
-      <c r="D64" s="2">
-        <v>38</v>
-      </c>
-      <c r="E64" s="2">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2">
-        <v>0</v>
-      </c>
-      <c r="G64" s="2">
-        <v>0</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
-        <v>46024</v>
-      </c>
-      <c r="B65" s="2">
-        <v>5615</v>
-      </c>
-      <c r="C65" s="2">
-        <v>3159</v>
-      </c>
-      <c r="D65" s="2">
-        <v>2895</v>
-      </c>
-      <c r="E65" s="2">
-        <v>191</v>
-      </c>
-      <c r="F65" s="2">
-        <v>38</v>
-      </c>
-      <c r="G65" s="2">
-        <v>32</v>
-      </c>
-      <c r="H65" s="2">
-        <v>2</v>
-      </c>
-      <c r="I65" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>46025</v>
-      </c>
-      <c r="B66" s="2">
-        <v>5615</v>
-      </c>
-      <c r="C66" s="2">
-        <v>49</v>
-      </c>
-      <c r="D66" s="2">
-        <v>49</v>
-      </c>
-      <c r="E66" s="2">
-        <v>0</v>
-      </c>
-      <c r="F66" s="2">
-        <v>0</v>
-      </c>
-      <c r="G66" s="2">
-        <v>0</v>
-      </c>
-      <c r="H66" s="2">
-        <v>0</v>
-      </c>
-      <c r="I66" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>46026</v>
-      </c>
-      <c r="B67" s="2">
-        <v>5615</v>
-      </c>
-      <c r="C67" s="2">
-        <v>28</v>
-      </c>
-      <c r="D67" s="2">
-        <v>28</v>
-      </c>
-      <c r="E67" s="2">
-        <v>0</v>
-      </c>
-      <c r="F67" s="2">
-        <v>0</v>
-      </c>
-      <c r="G67" s="2">
-        <v>0</v>
-      </c>
-      <c r="H67" s="2">
-        <v>0</v>
-      </c>
-      <c r="I67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>46027</v>
-      </c>
-      <c r="B68" s="2">
-        <v>5615</v>
-      </c>
-      <c r="C68" s="2">
-        <v>4161</v>
-      </c>
-      <c r="D68" s="2">
-        <v>3862</v>
-      </c>
-      <c r="E68" s="2">
-        <v>216</v>
-      </c>
-      <c r="F68" s="2">
-        <v>48</v>
-      </c>
-      <c r="G68" s="2">
-        <v>31</v>
-      </c>
-      <c r="H68" s="2">
-        <v>4</v>
-      </c>
-      <c r="I68" s="2">
-        <v>0</v>
-      </c>
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{349D9D6F-6563-47FF-8DED-57C3AF8AC428}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77DC79B0-C837-40F5-9BCA-EB4F82F04801}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:I63"/>
+      <selection activeCell="A65" sqref="A65:I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2243,18 +2243,70 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>46028</v>
+      </c>
+      <c r="B64" s="2">
+        <v>5599</v>
+      </c>
+      <c r="C64" s="2">
+        <v>4344</v>
+      </c>
+      <c r="D64" s="2">
+        <v>4028</v>
+      </c>
+      <c r="E64" s="2">
+        <v>236</v>
+      </c>
+      <c r="F64" s="2">
+        <v>45</v>
+      </c>
+      <c r="G64" s="2">
+        <v>30</v>
+      </c>
+      <c r="H64" s="2">
+        <v>4</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>46029</v>
+      </c>
+      <c r="B65" s="2">
+        <v>5590</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4371</v>
+      </c>
+      <c r="D65" s="2">
+        <v>4065</v>
+      </c>
+      <c r="E65" s="2">
+        <v>227</v>
+      </c>
+      <c r="F65" s="2">
+        <v>40</v>
+      </c>
+      <c r="G65" s="2">
+        <v>35</v>
+      </c>
+      <c r="H65" s="2">
+        <v>3</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
     </row>
   </sheetData>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77DC79B0-C837-40F5-9BCA-EB4F82F04801}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCF4CC00-E409-4EC3-8056-E162FADC792A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:I65"/>
+      <selection activeCell="A66" sqref="A66:I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2301,7 +2301,33 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
+      <c r="A66" s="4">
+        <v>46030</v>
+      </c>
+      <c r="B66" s="2">
+        <v>5593</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4350</v>
+      </c>
+      <c r="D66" s="2">
+        <v>4037</v>
+      </c>
+      <c r="E66" s="2">
+        <v>205</v>
+      </c>
+      <c r="F66" s="2">
+        <v>72</v>
+      </c>
+      <c r="G66" s="2">
+        <v>31</v>
+      </c>
+      <c r="H66" s="2">
+        <v>5</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCF4CC00-E409-4EC3-8056-E162FADC792A}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A63914BE-8970-45F6-9C41-0AC89C3692F8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:I66"/>
+      <selection activeCell="A70" sqref="A70:I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2330,10 +2330,120 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
+      <c r="A67" s="4">
+        <v>46031</v>
+      </c>
+      <c r="B67" s="2">
+        <v>5594</v>
+      </c>
+      <c r="C67" s="2">
+        <v>4161</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3838</v>
+      </c>
+      <c r="E67" s="2">
+        <v>234</v>
+      </c>
+      <c r="F67" s="2">
+        <v>51</v>
+      </c>
+      <c r="G67" s="2">
+        <v>35</v>
+      </c>
+      <c r="H67" s="2">
+        <v>3</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
+      <c r="A68" s="4">
+        <v>46034</v>
+      </c>
+      <c r="B68" s="2">
+        <v>5603</v>
+      </c>
+      <c r="C68" s="2">
+        <v>4383</v>
+      </c>
+      <c r="D68" s="2">
+        <v>4021</v>
+      </c>
+      <c r="E68" s="2">
+        <v>267</v>
+      </c>
+      <c r="F68" s="2">
+        <v>51</v>
+      </c>
+      <c r="G68" s="2">
+        <v>32</v>
+      </c>
+      <c r="H68" s="2">
+        <v>11</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>46035</v>
+      </c>
+      <c r="B69" s="2">
+        <v>5603</v>
+      </c>
+      <c r="C69" s="2">
+        <v>4436</v>
+      </c>
+      <c r="D69" s="2">
+        <v>4057</v>
+      </c>
+      <c r="E69" s="2">
+        <v>273</v>
+      </c>
+      <c r="F69" s="2">
+        <v>69</v>
+      </c>
+      <c r="G69" s="2">
+        <v>33</v>
+      </c>
+      <c r="H69" s="2">
+        <v>4</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>46036</v>
+      </c>
+      <c r="B70" s="2">
+        <v>5602</v>
+      </c>
+      <c r="C70" s="2">
+        <v>4401</v>
+      </c>
+      <c r="D70" s="2">
+        <v>4081</v>
+      </c>
+      <c r="E70" s="2">
+        <v>224</v>
+      </c>
+      <c r="F70" s="2">
+        <v>55</v>
+      </c>
+      <c r="G70" s="2">
+        <v>37</v>
+      </c>
+      <c r="H70" s="2">
+        <v>4</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A63914BE-8970-45F6-9C41-0AC89C3692F8}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D69824F9-20EE-4F67-9B5D-FCA9C4E5A052}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:I70"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2445,6 +2445,64 @@
         <v>0</v>
       </c>
     </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>46037</v>
+      </c>
+      <c r="B71" s="2">
+        <v>5604</v>
+      </c>
+      <c r="C71" s="2">
+        <v>4305</v>
+      </c>
+      <c r="D71" s="2">
+        <v>3987</v>
+      </c>
+      <c r="E71" s="2">
+        <v>221</v>
+      </c>
+      <c r="F71" s="2">
+        <v>51</v>
+      </c>
+      <c r="G71" s="2">
+        <v>38</v>
+      </c>
+      <c r="H71" s="2">
+        <v>8</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>46038</v>
+      </c>
+      <c r="B72" s="2">
+        <v>5599</v>
+      </c>
+      <c r="C72" s="2">
+        <v>3981</v>
+      </c>
+      <c r="D72" s="2">
+        <v>3645</v>
+      </c>
+      <c r="E72" s="2">
+        <v>237</v>
+      </c>
+      <c r="F72" s="2">
+        <v>49</v>
+      </c>
+      <c r="G72" s="2">
+        <v>42</v>
+      </c>
+      <c r="H72" s="2">
+        <v>7</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D69824F9-20EE-4F67-9B5D-FCA9C4E5A052}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{910BBD03-612E-47DA-AAA2-6FBA9A01C437}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:I72"/>
+      <selection activeCell="A75" sqref="A75:I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2503,6 +2503,93 @@
         <v>1</v>
       </c>
     </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>46042</v>
+      </c>
+      <c r="B73" s="2">
+        <v>5607</v>
+      </c>
+      <c r="C73" s="2">
+        <v>4256</v>
+      </c>
+      <c r="D73" s="2">
+        <v>3885</v>
+      </c>
+      <c r="E73" s="2">
+        <v>235</v>
+      </c>
+      <c r="F73" s="2">
+        <v>72</v>
+      </c>
+      <c r="G73" s="2">
+        <v>52</v>
+      </c>
+      <c r="H73" s="2">
+        <v>9</v>
+      </c>
+      <c r="I73" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>46044</v>
+      </c>
+      <c r="B74" s="2">
+        <v>5601</v>
+      </c>
+      <c r="C74" s="2">
+        <v>4399</v>
+      </c>
+      <c r="D74" s="2">
+        <v>3879</v>
+      </c>
+      <c r="E74" s="2">
+        <v>305</v>
+      </c>
+      <c r="F74" s="2">
+        <v>106</v>
+      </c>
+      <c r="G74" s="2">
+        <v>87</v>
+      </c>
+      <c r="H74" s="2">
+        <v>20</v>
+      </c>
+      <c r="I74" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>46043</v>
+      </c>
+      <c r="B75" s="2">
+        <v>5602</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4389</v>
+      </c>
+      <c r="D75" s="2">
+        <v>3067</v>
+      </c>
+      <c r="E75" s="2">
+        <v>435</v>
+      </c>
+      <c r="F75" s="2">
+        <v>370</v>
+      </c>
+      <c r="G75" s="2">
+        <v>419</v>
+      </c>
+      <c r="H75" s="2">
+        <v>90</v>
+      </c>
+      <c r="I75" s="2">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{910BBD03-612E-47DA-AAA2-6FBA9A01C437}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{121E0F22-45B7-487F-A607-0D9974859809}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:I75"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2590,6 +2590,64 @@
         <v>8</v>
       </c>
     </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>46045</v>
+      </c>
+      <c r="B76" s="2">
+        <v>5603</v>
+      </c>
+      <c r="C76" s="2">
+        <v>4203</v>
+      </c>
+      <c r="D76" s="2">
+        <v>3876</v>
+      </c>
+      <c r="E76" s="2">
+        <v>243</v>
+      </c>
+      <c r="F76" s="2">
+        <v>47</v>
+      </c>
+      <c r="G76" s="2">
+        <v>27</v>
+      </c>
+      <c r="H76" s="2">
+        <v>9</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>46048</v>
+      </c>
+      <c r="B77" s="2">
+        <v>5599</v>
+      </c>
+      <c r="C77" s="2">
+        <v>4320</v>
+      </c>
+      <c r="D77" s="2">
+        <v>3704</v>
+      </c>
+      <c r="E77" s="2">
+        <v>398</v>
+      </c>
+      <c r="F77" s="2">
+        <v>134</v>
+      </c>
+      <c r="G77" s="2">
+        <v>72</v>
+      </c>
+      <c r="H77" s="2">
+        <v>9</v>
+      </c>
+      <c r="I77" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
+++ b/Monitoring Data Files/User Impact/Daily User Impact Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{121E0F22-45B7-487F-A607-0D9974859809}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{933BA514-32F1-4758-9980-EDC5E4DA179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F162406-1800-4911-9CAA-06EB666264AC}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+      <selection activeCell="A79" sqref="A79:I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2648,6 +2648,64 @@
         <v>3</v>
       </c>
     </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>46049</v>
+      </c>
+      <c r="B78" s="2">
+        <v>5605</v>
+      </c>
+      <c r="C78" s="2">
+        <v>4474</v>
+      </c>
+      <c r="D78" s="2">
+        <v>4035</v>
+      </c>
+      <c r="E78" s="2">
+        <v>282</v>
+      </c>
+      <c r="F78" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" s="2">
+        <v>66</v>
+      </c>
+      <c r="H78" s="2">
+        <v>12</v>
+      </c>
+      <c r="I78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>46050</v>
+      </c>
+      <c r="B79" s="2">
+        <v>5604</v>
+      </c>
+      <c r="C79" s="2">
+        <v>4478</v>
+      </c>
+      <c r="D79" s="2">
+        <v>4042</v>
+      </c>
+      <c r="E79" s="2">
+        <v>289</v>
+      </c>
+      <c r="F79" s="2">
+        <v>73</v>
+      </c>
+      <c r="G79" s="2">
+        <v>60</v>
+      </c>
+      <c r="H79" s="2">
+        <v>12</v>
+      </c>
+      <c r="I79" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
